--- a/wenjian/函数.xlsx
+++ b/wenjian/函数.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\test\wenjian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>中国的经济发展</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,12 +96,170 @@
   <si>
     <t>说得对</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货者地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙</t>
+  </si>
+  <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>戊</t>
+  </si>
+  <si>
+    <t>己</t>
+  </si>
+  <si>
+    <t>庚</t>
+  </si>
+  <si>
+    <t>辛</t>
+  </si>
+  <si>
+    <t>壬</t>
+  </si>
+  <si>
+    <t>癸</t>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄樊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材2</t>
+  </si>
+  <si>
+    <t>钢材3</t>
+  </si>
+  <si>
+    <t>钢材4</t>
+  </si>
+  <si>
+    <t>钢材5</t>
+  </si>
+  <si>
+    <t>钢材6</t>
+  </si>
+  <si>
+    <t>钢材7</t>
+  </si>
+  <si>
+    <t>钢材8</t>
+  </si>
+  <si>
+    <t>钢材9</t>
+  </si>
+  <si>
+    <t>钢材10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,11 +585,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="3:10" x14ac:dyDescent="0.15">
       <c r="J4" t="s">
@@ -582,4 +744,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>23.11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>45.13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>56.14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>78.16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>89.17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>100.18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>111.19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>122.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wenjian/函数.xlsx
+++ b/wenjian/函数.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>中国的经济发展</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +255,75 @@
   </si>
   <si>
     <t>钢材10</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
   </si>
 </sst>
 </file>
@@ -318,6 +388,1886 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>销售数据</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A销售</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AD9-4B44-BB7D-3AA9879E1AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B销售</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AD9-4B44-BB7D-3AA9879E1AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C销售</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1AD9-4B44-BB7D-3AA9879E1AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D销售</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1AD9-4B44-BB7D-3AA9879E1AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E销售</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1AD9-4B44-BB7D-3AA9879E1AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F销售</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$3:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1AD9-4B44-BB7D-3AA9879E1AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G销售</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$3:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1AD9-4B44-BB7D-3AA9879E1AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$3:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1AD9-4B44-BB7D-3AA9879E1AA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="648151887"/>
+        <c:axId val="515798287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="648151887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515798287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="515798287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648151887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$L$1" fmlaRange="$L$2:$L$8" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F429560D-F5AE-4418-B153-BFA9632B9589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="下拉框 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D378159C-DB28-4F34-AB05-760E19ABD3BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,4 +2930,501 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>67</v>
+      </c>
+      <c r="G3">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3">
+        <f>CHOOSE($L$1,D3,E3,F3,G3,H3,I3,J3)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="0">CHOOSE($L$1,D4,E4,F4,G4,H4,I4,J4)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>56</v>
+      </c>
+      <c r="I5">
+        <v>67</v>
+      </c>
+      <c r="J5">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>54</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>61</v>
+      </c>
+      <c r="I8">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>67</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>67</v>
+      </c>
+      <c r="J10">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+      <c r="F11">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>56</v>
+      </c>
+      <c r="I11">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>61</v>
+      </c>
+      <c r="M12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId3" name="Drop Down 3">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>